--- a/import_data.xlsx
+++ b/import_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9948" tabRatio="725" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9948" tabRatio="725"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2617" uniqueCount="747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2625" uniqueCount="755">
   <si>
     <t>Description 1212</t>
   </si>
@@ -2275,6 +2275,30 @@
   </si>
   <si>
     <t>abc1</t>
+  </si>
+  <si>
+    <t>product_model_no</t>
+  </si>
+  <si>
+    <t>3434AXCD1</t>
+  </si>
+  <si>
+    <t>3434AXCD2</t>
+  </si>
+  <si>
+    <t>3434AXCD3</t>
+  </si>
+  <si>
+    <t>3434AXCD4</t>
+  </si>
+  <si>
+    <t>3434AXCD5</t>
+  </si>
+  <si>
+    <t>3434AXCD6</t>
+  </si>
+  <si>
+    <t>3434AXCD7</t>
   </si>
 </sst>
 </file>
@@ -2781,174 +2805,199 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="A1:D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" style="5" customWidth="1"/>
-    <col min="5" max="8" width="8.88671875" style="5"/>
-    <col min="9" max="9" width="11.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="5"/>
+    <col min="1" max="1" width="15.88671875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" style="5" customWidth="1"/>
+    <col min="6" max="9" width="8.88671875" style="5"/>
+    <col min="10" max="10" width="11.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:13" ht="15.6">
+      <c r="A1" s="24" t="s">
+        <v>747</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
-    </row>
-    <row r="2" spans="1:12" ht="15.6">
-      <c r="A2" s="6">
+      <c r="M1" s="4"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.6">
+      <c r="A2" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="B2" s="6">
         <v>1225225</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="4"/>
-    </row>
-    <row r="3" spans="1:12" ht="15.6">
-      <c r="A3" s="6">
-        <f>A2+1</f>
+      <c r="J2" s="6"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.6">
+      <c r="A3" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="B3" s="6">
+        <f>B2+1</f>
         <v>1225226</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="4"/>
-    </row>
-    <row r="4" spans="1:12" ht="15.6">
-      <c r="A4" s="6">
-        <f t="shared" ref="A4:A7" si="0">A3+1</f>
+      <c r="J3" s="6"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.6">
+      <c r="A4" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="B4" s="6">
+        <f t="shared" ref="B4:B7" si="0">B3+1</f>
         <v>1225227</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="4"/>
-    </row>
-    <row r="5" spans="1:12" ht="15.6">
-      <c r="A5" s="6">
+      <c r="J4" s="6"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:13" ht="15.6">
+      <c r="A5" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="B5" s="6">
         <f t="shared" si="0"/>
         <v>1225228</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="4"/>
-    </row>
-    <row r="6" spans="1:12" ht="15.6">
-      <c r="A6" s="6">
+      <c r="J5" s="6"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.6">
+      <c r="A6" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="B6" s="6">
         <f t="shared" si="0"/>
         <v>1225229</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="4"/>
-    </row>
-    <row r="7" spans="1:12" ht="15.6">
-      <c r="A7" s="6">
+      <c r="J6" s="6"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.6">
+      <c r="A7" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="B7" s="6">
         <f t="shared" si="0"/>
         <v>1225230</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="4"/>
-    </row>
-    <row r="8" spans="1:12" ht="15.6">
-      <c r="A8" s="6" t="s">
+      <c r="J7" s="6"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.6">
+      <c r="A8" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="4"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11057,7 +11106,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
